--- a/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.3.xlsx
+++ b/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\Preparação\Esquemas de raciocínio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,12 +66,6 @@
     <t>A ← A &gt;&gt; 1</t>
   </si>
   <si>
-    <t>JNZ(11)</t>
-  </si>
-  <si>
-    <t>JNZ(0)</t>
-  </si>
-  <si>
     <t>R1 ← X</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>00000</t>
+  </si>
+  <si>
+    <t>JNZ 11</t>
+  </si>
+  <si>
+    <t>JNZ 0</t>
   </si>
 </sst>
 </file>
@@ -228,24 +228,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,13 +237,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -270,16 +264,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -576,31 +576,33 @@
     <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.88671875" customWidth="1"/>
     <col min="9" max="10" width="7.77734375" style="7" customWidth="1"/>
-    <col min="11" max="24" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="24" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="15"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A2" s="27"/>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
@@ -629,27 +631,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>22</v>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>25</v>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3" si="0">BIN2HEX(CONCATENATE(B3,C3,D3))</f>
         <v>30</v>
@@ -659,25 +661,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>24</v>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>25</v>
+      <c r="D4" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>19</v>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="5" t="str">
         <f t="shared" ref="I4:I15" si="2">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
         <v>80</v>
@@ -686,24 +688,25 @@
         <f t="shared" ref="J4:J15" si="3">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>24</v>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>25</v>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -712,24 +715,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>100</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>24</v>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>25</v>
+      <c r="D6" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -738,24 +742,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>24</v>
+      <c r="C7" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>25</v>
+      <c r="D7" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -764,24 +769,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>100</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>24</v>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>25</v>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -790,24 +796,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>24</v>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>25</v>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -816,24 +823,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>100</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>24</v>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>25</v>
+      <c r="D10" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -842,24 +850,25 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>24</v>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>25</v>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -868,22 +877,23 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>27</v>
+      <c r="B12" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
@@ -892,22 +902,23 @@
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A0</v>
@@ -916,28 +927,29 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -946,22 +958,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A0</v>
@@ -970,8 +983,9 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10839,17 +10853,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E12:H13"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E12:H13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
